--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BErly\Documents\TikTok_Ban_Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9AE14A-E795-4494-B3E3-676A9DA225FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EF009-A384-413C-B5B9-1DF0FB4DEEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{CBB46C91-C1E4-4358-B760-FFEAFBCF1297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{CBB46C91-C1E4-4358-B760-FFEAFBCF1297}"/>
   </bookViews>
   <sheets>
     <sheet name="country_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>https://www.euronews.com/next/2023/04/04/which-countries-have-banned-tiktok-cybersecurity-data-privacy-espionage-fears</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>United Kingdown</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -104,6 +95,18 @@
   </si>
   <si>
     <t>https://www.npr.org/2023/04/14/1170204627/montana-becomes-1st-state-to-approve-a-full-ban-of-tiktok</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A9BD12-991E-4301-8D41-99206EAD09F4}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>45001</v>
@@ -518,7 +521,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
         <v>45008</v>
@@ -529,7 +532,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>45008</v>
@@ -540,7 +543,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>44995</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>44991</v>
@@ -562,7 +565,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>45015</v>
@@ -573,7 +576,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>44985</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>45002</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>43831</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>44896</v>
@@ -617,7 +620,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>44105</v>
@@ -628,12 +631,23 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>44713</v>
       </c>
       <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44562</v>
+      </c>
+      <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -658,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -672,7 +686,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>45027</v>
@@ -690,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9E4F9C-4A06-46E1-B75B-007A72622863}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +717,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
